--- a/diary/databook-m-170918.xlsx
+++ b/diary/databook-m-170918.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="790" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9495" tabRatio="790" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Relative susceptibility among population group [P]</t>
   </si>
   <si>
-    <t>Mosquito Population Growth [P]</t>
-  </si>
-  <si>
     <t>Mosquito Death Rate [P]</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>Supplement to program A</t>
-  </si>
-  <si>
-    <t>LLIN</t>
   </si>
   <si>
     <t>Increased utilisation in program B</t>
@@ -1329,29 +1323,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1796,24 +1790,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="64" t="s">
         <v>6</v>
@@ -1824,16 +1818,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="64" t="s">
         <v>6</v>
@@ -1841,10 +1835,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>6</v>
@@ -1853,18 +1847,18 @@
         <v>6</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>6</v>
@@ -1875,16 +1869,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="64" t="s">
         <v>6</v>
@@ -1892,10 +1886,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>6</v>
@@ -1904,21 +1898,21 @@
         <v>6</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="64" t="s">
         <v>6</v>
@@ -1926,47 +1920,47 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>6</v>
@@ -1977,16 +1971,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>6</v>
@@ -1994,10 +1988,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>6</v>
@@ -2006,32 +2000,32 @@
         <v>6</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>6</v>
@@ -2040,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F119" sqref="F119:K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,10 +2063,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -2120,13 +2114,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>15</v>
@@ -2161,7 +2155,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>15</v>
@@ -2190,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>14</v>
@@ -2222,16 +2216,16 @@
     </row>
     <row r="6" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="C6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>15</v>
@@ -2270,10 +2264,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -2321,13 +2315,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>15</v>
@@ -2362,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>15</v>
@@ -2391,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>14</v>
@@ -2423,16 +2417,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="C13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>15</v>
@@ -2458,10 +2452,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -2509,13 +2503,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>15</v>
@@ -2550,7 +2544,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>15</v>
@@ -2579,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>14</v>
@@ -2611,16 +2605,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="C20" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>15</v>
@@ -2659,10 +2653,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -2710,13 +2704,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>15</v>
@@ -2725,11 +2719,11 @@
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
       <c r="I24" s="54">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="J24" s="54"/>
       <c r="K24" s="54">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2743,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>15</v>
@@ -2772,215 +2766,217 @@
         <v>10</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="52">
-        <v>0.04</v>
+        <v>0.12950098048847566</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="61">
-        <v>0.04</v>
-      </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="61">
-        <v>0.04</v>
+      <c r="F26" s="56">
+        <v>5.5528571428557098E-2</v>
+      </c>
+      <c r="G26" s="56">
+        <v>6.6136764705882395E-2</v>
+      </c>
+      <c r="H26" s="56">
+        <v>8.8823707644917399E-2</v>
+      </c>
+      <c r="I26" s="56">
+        <v>0.13647876499647099</v>
+      </c>
+      <c r="J26" s="56">
+        <v>0.203131231231231</v>
+      </c>
+      <c r="K26" s="56">
+        <v>0.22690684292379501</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D27" s="47">
+        <v>0.9</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="G27" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="I27" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="J27" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="K27" s="47">
-        <v>0.2</v>
-      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="D28" s="47">
+        <v>0.9</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G29" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="H29" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="I29" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="J29" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="K29" s="47">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="62">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H32" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I32" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J32" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K32" s="48">
+        <v>3825</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G33" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H33" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I33" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J33" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K33" s="48">
-        <v>3825</v>
+        <v>11</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54">
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54">
-        <v>0.99</v>
+      <c r="F34" s="60">
+        <v>100</v>
+      </c>
+      <c r="G34" s="60">
+        <v>100</v>
+      </c>
+      <c r="H34" s="60">
+        <v>100</v>
+      </c>
+      <c r="I34" s="60">
+        <v>100</v>
+      </c>
+      <c r="J34" s="60">
+        <v>100</v>
+      </c>
+      <c r="K34" s="60">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2988,170 +2984,111 @@
         <v>10</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>46</v>
+      <c r="D35" s="52">
+        <v>0.15587496660432809</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="60">
-        <v>100</v>
-      </c>
-      <c r="G35" s="60">
-        <v>100</v>
-      </c>
-      <c r="H35" s="60">
-        <v>100</v>
-      </c>
-      <c r="I35" s="60">
-        <v>100</v>
-      </c>
-      <c r="J35" s="60">
-        <v>100</v>
-      </c>
-      <c r="K35" s="60">
-        <v>100</v>
+      <c r="F35" s="57">
+        <v>0.15587496660432809</v>
+      </c>
+      <c r="G35" s="57">
+        <v>0.15587496660432809</v>
+      </c>
+      <c r="H35" s="57">
+        <v>0.15587496660432809</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57">
+        <v>0.15587496660432809</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="47" t="s">
         <v>50</v>
       </c>
+      <c r="B36" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="C36" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="52">
-        <v>0.04</v>
+        <v>52</v>
+      </c>
+      <c r="D36" s="60">
+        <v>0.3</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="61">
-        <v>0.04</v>
-      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D37" s="60">
+        <v>0.5</v>
       </c>
       <c r="E37" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="G37" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="H37" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="I37" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="J37" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="K37" s="47">
-        <v>0.2</v>
-      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>59</v>
+      <c r="B38" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="D38" s="54">
+        <v>1</v>
       </c>
       <c r="E38" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G39" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="H39" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="I39" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="J39" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="K39" s="47">
-        <v>0.3</v>
-      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
-        <v>10</v>
+      <c r="A40" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>15</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
@@ -3159,230 +3096,230 @@
       <c r="J40" s="47"/>
       <c r="K40" s="47"/>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H41" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I41" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J41" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K41" s="48">
+        <v>3825</v>
+      </c>
+    </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>65</v>
+      <c r="A42" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
+        <v>48</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="54">
+        <v>0</v>
+      </c>
+      <c r="G42" s="54">
+        <v>0</v>
+      </c>
+      <c r="H42" s="54">
+        <v>0</v>
+      </c>
+      <c r="I42" s="54">
+        <v>0</v>
+      </c>
+      <c r="J42" s="54">
+        <v>0</v>
+      </c>
+      <c r="K42" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G43" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H43" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I43" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J43" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K43" s="48">
-        <v>3825</v>
+      <c r="B43" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="60">
+        <v>100</v>
+      </c>
+      <c r="G43" s="60">
+        <v>100</v>
+      </c>
+      <c r="H43" s="60">
+        <v>100</v>
+      </c>
+      <c r="I43" s="60">
+        <v>100</v>
+      </c>
+      <c r="J43" s="60">
+        <v>100</v>
+      </c>
+      <c r="K43" s="60">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="D44" s="52">
+        <v>1.65</v>
       </c>
       <c r="E44" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54">
-        <v>0.99</v>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55">
+        <v>1.65</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D45" s="47">
+        <v>0.52</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="60">
-        <v>100</v>
-      </c>
-      <c r="G45" s="60">
-        <v>100</v>
-      </c>
-      <c r="H45" s="60">
-        <v>100</v>
-      </c>
-      <c r="I45" s="60">
-        <v>100</v>
-      </c>
-      <c r="J45" s="60">
-        <v>100</v>
-      </c>
-      <c r="K45" s="60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="52">
-        <v>0.04</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="61">
-        <v>0.04</v>
-      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
-        <v>51</v>
+      <c r="A47" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="G47" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="H47" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="I47" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="J47" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="K47" s="47">
-        <v>0.2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H48" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I48" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J48" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K48" s="48">
+        <v>3825</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G49" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="H49" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="I49" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="J49" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="K49" s="47">
-        <v>0.3</v>
+      <c r="F49" s="54">
+        <v>0.373</v>
+      </c>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="63">
+        <v>0.115</v>
+      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="63">
+        <v>0.115</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3390,1123 +3327,1175 @@
         <v>10</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E50" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
+      <c r="F50" s="60">
+        <v>100</v>
+      </c>
+      <c r="G50" s="60">
+        <v>100</v>
+      </c>
+      <c r="H50" s="60">
+        <v>100</v>
+      </c>
+      <c r="I50" s="60">
+        <v>100</v>
+      </c>
+      <c r="J50" s="60">
+        <v>100</v>
+      </c>
+      <c r="K50" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="52">
+        <v>3.1686111111111113</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="57">
+        <v>3.2124999999999999</v>
+      </c>
+      <c r="J51" s="57">
+        <v>3.1466666666666665</v>
+      </c>
+      <c r="K51" s="57">
+        <v>3.1466666666666665</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
+      <c r="A52" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="60">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G53" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H53" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I53" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J53" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K53" s="48">
-        <v>3825</v>
-      </c>
+      <c r="B53" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="60">
+        <v>0.41</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54">
-        <v>0.61</v>
-      </c>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="60">
-        <v>100</v>
-      </c>
-      <c r="G55" s="60">
-        <v>100</v>
-      </c>
-      <c r="H55" s="60">
-        <v>100</v>
-      </c>
-      <c r="I55" s="60">
-        <v>100</v>
-      </c>
-      <c r="J55" s="60">
-        <v>100</v>
-      </c>
-      <c r="K55" s="60">
-        <v>100</v>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63">
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
-        <v>10</v>
+      <c r="A56" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="52">
-        <v>0.12950098048847566</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="56">
-        <v>5.5528571428557098E-2</v>
-      </c>
-      <c r="G56" s="56">
-        <v>6.6136764705882395E-2</v>
-      </c>
-      <c r="H56" s="56">
-        <v>8.8823707644917399E-2</v>
-      </c>
-      <c r="I56" s="56">
-        <v>0.13647876499647099</v>
-      </c>
-      <c r="J56" s="56">
-        <v>0.203131231231231</v>
-      </c>
-      <c r="K56" s="56">
-        <v>0.22690684292379501</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
+        <v>10</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H57" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I57" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J57" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K57" s="48">
+        <v>3825</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="47">
-        <v>0.9</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="E58" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
+      <c r="F58" s="59">
+        <v>0.37608318890814557</v>
+      </c>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59">
+        <v>0.79400000000000004</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="62">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="J59" s="63"/>
-      <c r="K59" s="62">
-        <v>0.50600000000000001</v>
+      <c r="F59" s="60">
+        <v>100</v>
+      </c>
+      <c r="G59" s="60">
+        <v>100</v>
+      </c>
+      <c r="H59" s="60">
+        <v>100</v>
+      </c>
+      <c r="I59" s="60">
+        <v>100</v>
+      </c>
+      <c r="J59" s="60">
+        <v>100</v>
+      </c>
+      <c r="K59" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="52">
+        <v>3.1686111111111113</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="57">
+        <v>3.2124999999999999</v>
+      </c>
+      <c r="J60" s="57">
+        <v>3.1466666666666665</v>
+      </c>
+      <c r="K60" s="57">
+        <v>3.1466666666666665</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="47" t="s">
+      <c r="A61" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
+      <c r="C61" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="60">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G62" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H62" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I62" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J62" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K62" s="48">
-        <v>3825</v>
-      </c>
+      <c r="B62" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="60">
+        <v>0.41</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="60">
-        <v>100</v>
-      </c>
-      <c r="G64" s="60">
-        <v>100</v>
-      </c>
-      <c r="H64" s="60">
-        <v>100</v>
-      </c>
-      <c r="I64" s="60">
-        <v>100</v>
-      </c>
-      <c r="J64" s="60">
-        <v>100</v>
-      </c>
-      <c r="K64" s="60">
-        <v>100</v>
+      <c r="F63" s="63">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63">
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
-        <v>10</v>
+      <c r="A65" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="52">
-        <v>0.15587496660432809</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="57">
-        <v>0.15587496660432809</v>
-      </c>
-      <c r="G65" s="57">
-        <v>0.15587496660432809</v>
-      </c>
-      <c r="H65" s="57">
-        <v>0.15587496660432809</v>
-      </c>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57">
-        <v>0.15587496660432809</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="60">
-        <v>0.3</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
+        <v>10</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G66" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H66" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I66" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J66" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K66" s="48">
+        <v>3825</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" s="60">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="E67" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
+      <c r="F67" s="59">
+        <v>0.44344313238036048</v>
+      </c>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59">
+        <v>0.72399999999999998</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="53" t="s">
-        <v>70</v>
+      <c r="B68" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="54">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
+      <c r="F68" s="60">
+        <v>100</v>
+      </c>
+      <c r="G68" s="60">
+        <v>100</v>
+      </c>
+      <c r="H68" s="60">
+        <v>100</v>
+      </c>
+      <c r="I68" s="60">
+        <v>100</v>
+      </c>
+      <c r="J68" s="60">
+        <v>100</v>
+      </c>
+      <c r="K68" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="52">
+        <v>3.1686111111111113</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="57">
+        <v>3.2124999999999999</v>
+      </c>
+      <c r="J69" s="57">
+        <v>3.1466666666666665</v>
+      </c>
+      <c r="K69" s="57">
+        <v>3.1466666666666665</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
+      <c r="A70" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="60">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G71" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H71" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I71" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J71" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K71" s="48">
-        <v>3825</v>
-      </c>
+      <c r="B71" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="60">
+        <v>0.41</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="54">
-        <v>0</v>
-      </c>
-      <c r="G72" s="54">
-        <v>0</v>
-      </c>
-      <c r="H72" s="54">
-        <v>0</v>
-      </c>
-      <c r="I72" s="54">
-        <v>0</v>
-      </c>
-      <c r="J72" s="54">
-        <v>0</v>
-      </c>
-      <c r="K72" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="60">
-        <v>100</v>
-      </c>
-      <c r="G73" s="60">
-        <v>100</v>
-      </c>
-      <c r="H73" s="60">
-        <v>100</v>
-      </c>
-      <c r="I73" s="60">
-        <v>100</v>
-      </c>
-      <c r="J73" s="60">
-        <v>100</v>
-      </c>
-      <c r="K73" s="60">
-        <v>100</v>
+      <c r="F72" s="63">
+        <v>0.308</v>
+      </c>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63">
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="47" t="s">
-        <v>10</v>
+      <c r="A74" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="52">
-        <v>1.65</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55">
-        <v>1.65</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="47">
-        <v>0.52</v>
-      </c>
-      <c r="E75" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
+        <v>10</v>
+      </c>
+      <c r="B75" s="47"/>
+      <c r="C75" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G75" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H75" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I75" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J75" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K75" s="48">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="54">
+        <v>0</v>
+      </c>
+      <c r="G76" s="54">
+        <v>0</v>
+      </c>
+      <c r="H76" s="54">
+        <v>0</v>
+      </c>
+      <c r="I76" s="54">
+        <v>0</v>
+      </c>
+      <c r="J76" s="54">
+        <v>0</v>
+      </c>
+      <c r="K76" s="54">
+        <v>0.38300000000000001</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>79</v>
+      <c r="A77" s="47" t="s">
+        <v>10</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
+        <v>12</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="60">
+        <v>100</v>
+      </c>
+      <c r="G77" s="60">
+        <v>100</v>
+      </c>
+      <c r="H77" s="60">
+        <v>100</v>
+      </c>
+      <c r="I77" s="60">
+        <v>100</v>
+      </c>
+      <c r="J77" s="60">
+        <v>100</v>
+      </c>
+      <c r="K77" s="60">
+        <v>100</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G78" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H78" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I78" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J78" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K78" s="48">
-        <v>3825</v>
+      <c r="B78" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="52">
+        <v>1.31</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55">
+        <v>1.31</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D79" s="47">
+        <v>0.9</v>
       </c>
       <c r="E79" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="54">
-        <v>0.373</v>
-      </c>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="63">
-        <v>0.115</v>
-      </c>
-      <c r="J79" s="54"/>
-      <c r="K79" s="63">
-        <v>0.115</v>
-      </c>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="47" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D80" s="47">
+        <v>0.9</v>
       </c>
       <c r="E80" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="60">
-        <v>100</v>
-      </c>
-      <c r="G80" s="60">
-        <v>100</v>
-      </c>
-      <c r="H80" s="60">
-        <v>100</v>
-      </c>
-      <c r="I80" s="60">
-        <v>100</v>
-      </c>
-      <c r="J80" s="60">
-        <v>100</v>
-      </c>
-      <c r="K80" s="60">
-        <v>100</v>
-      </c>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="52">
-        <v>3.1686111111111113</v>
+        <v>52</v>
+      </c>
+      <c r="D81" s="54">
+        <v>1</v>
       </c>
       <c r="E81" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="57">
-        <v>3.2124999999999999</v>
-      </c>
-      <c r="J81" s="57">
-        <v>3.1466666666666665</v>
-      </c>
-      <c r="K81" s="57">
-        <v>3.1466666666666665</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="60">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E82" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" s="60">
-        <v>0.41</v>
-      </c>
-      <c r="E83" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
+      <c r="A83" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="J84" s="63"/>
-      <c r="K84" s="63">
-        <v>0.41099999999999998</v>
+      <c r="B84" s="47"/>
+      <c r="C84" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G84" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H84" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I84" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J84" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K84" s="48">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="54">
+        <v>0</v>
+      </c>
+      <c r="G85" s="54">
+        <v>0</v>
+      </c>
+      <c r="H85" s="54">
+        <v>0</v>
+      </c>
+      <c r="I85" s="54">
+        <v>0</v>
+      </c>
+      <c r="J85" s="54">
+        <v>0</v>
+      </c>
+      <c r="K85" s="54">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
-        <v>80</v>
+      <c r="A86" s="47" t="s">
+        <v>10</v>
       </c>
       <c r="B86" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="47"/>
+        <v>12</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="60">
+        <v>100</v>
+      </c>
+      <c r="G86" s="60">
+        <v>100</v>
+      </c>
+      <c r="H86" s="60">
+        <v>100</v>
+      </c>
+      <c r="I86" s="60">
+        <v>100</v>
+      </c>
+      <c r="J86" s="60">
+        <v>100</v>
+      </c>
+      <c r="K86" s="60">
+        <v>100</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="47"/>
-      <c r="C87" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G87" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H87" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I87" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J87" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K87" s="48">
-        <v>3825</v>
-      </c>
+      <c r="B87" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E87" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B88" s="47" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="47" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D88" s="47">
+        <v>0.9</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="59">
-        <v>0.37608318890814557</v>
-      </c>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59">
-        <v>0.79400000000000004</v>
-      </c>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D89" s="47">
+        <v>0.9</v>
       </c>
       <c r="E89" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="60">
-        <v>100</v>
-      </c>
-      <c r="G89" s="60">
-        <v>100</v>
-      </c>
-      <c r="H89" s="60">
-        <v>100</v>
-      </c>
-      <c r="I89" s="60">
-        <v>100</v>
-      </c>
-      <c r="J89" s="60">
-        <v>100</v>
-      </c>
-      <c r="K89" s="60">
-        <v>100</v>
-      </c>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="52">
-        <v>3.1686111111111113</v>
+        <v>52</v>
+      </c>
+      <c r="D90" s="54">
+        <v>1</v>
       </c>
       <c r="E90" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="57">
-        <v>3.2124999999999999</v>
-      </c>
-      <c r="J90" s="57">
-        <v>3.1466666666666665</v>
-      </c>
-      <c r="K90" s="57">
-        <v>3.1466666666666665</v>
-      </c>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="60">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E91" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D92" s="60">
-        <v>0.41</v>
-      </c>
-      <c r="E92" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
+      <c r="A92" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="63">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="G93" s="63"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="63">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="J93" s="63"/>
-      <c r="K93" s="63">
-        <v>0.52200000000000002</v>
+      <c r="B93" s="47"/>
+      <c r="C93" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G93" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H93" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I93" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J93" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K93" s="48">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="J94" s="54"/>
+      <c r="K94" s="54">
+        <v>0.99</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
-        <v>81</v>
+      <c r="A95" s="47" t="s">
+        <v>10</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
+        <v>12</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="60">
+        <v>100</v>
+      </c>
+      <c r="G95" s="60">
+        <v>100</v>
+      </c>
+      <c r="H95" s="60">
+        <v>100</v>
+      </c>
+      <c r="I95" s="60">
+        <v>100</v>
+      </c>
+      <c r="J95" s="60">
+        <v>100</v>
+      </c>
+      <c r="K95" s="60">
+        <v>100</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G96" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H96" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I96" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J96" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K96" s="48">
-        <v>3825</v>
+      <c r="B96" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="52">
+        <v>0.04</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="61">
+        <v>0.04</v>
+      </c>
+      <c r="J96" s="55"/>
+      <c r="K96" s="61">
+        <v>0.04</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E97" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="59">
-        <v>0.44344313238036048</v>
-      </c>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59">
-        <v>0.72399999999999998</v>
+      <c r="F97" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="G97" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="H97" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="I97" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="J97" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="K97" s="47">
+        <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4514,256 +4503,248 @@
         <v>10</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E98" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="60">
-        <v>100</v>
-      </c>
-      <c r="G98" s="60">
-        <v>100</v>
-      </c>
-      <c r="H98" s="60">
-        <v>100</v>
-      </c>
-      <c r="I98" s="60">
-        <v>100</v>
-      </c>
-      <c r="J98" s="60">
-        <v>100</v>
-      </c>
-      <c r="K98" s="60">
-        <v>100</v>
-      </c>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="52">
-        <v>3.1686111111111113</v>
+        <v>52</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="E99" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="57">
-        <v>3.2124999999999999</v>
-      </c>
-      <c r="J99" s="57">
-        <v>3.1466666666666665</v>
-      </c>
-      <c r="K99" s="57">
-        <v>3.1466666666666665</v>
+      <c r="F99" s="47">
+        <v>0</v>
+      </c>
+      <c r="G99" s="64">
+        <v>0</v>
+      </c>
+      <c r="H99" s="64">
+        <v>0</v>
+      </c>
+      <c r="I99" s="64">
+        <v>0</v>
+      </c>
+      <c r="J99" s="64">
+        <v>0</v>
+      </c>
+      <c r="K99" s="64">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B100" s="53" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D100" s="60">
-        <v>0.56000000000000005</v>
+        <v>52</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="E100" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="47" t="s">
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="47"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="60">
-        <v>0.41</v>
-      </c>
-      <c r="E101" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="63">
-        <v>0.308</v>
-      </c>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="J102" s="63"/>
-      <c r="K102" s="63">
-        <v>0.47699999999999998</v>
+      <c r="B103" s="47"/>
+      <c r="C103" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G103" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H103" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I103" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J103" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K103" s="48">
+        <v>3825</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="48" t="s">
-        <v>82</v>
+      <c r="A104" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="47"/>
+        <v>48</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="47"/>
-      <c r="C105" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G105" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H105" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I105" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J105" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K105" s="48">
-        <v>3825</v>
+      <c r="B105" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="60">
+        <v>100</v>
+      </c>
+      <c r="G105" s="60">
+        <v>100</v>
+      </c>
+      <c r="H105" s="60">
+        <v>100</v>
+      </c>
+      <c r="I105" s="60">
+        <v>100</v>
+      </c>
+      <c r="J105" s="60">
+        <v>100</v>
+      </c>
+      <c r="K105" s="60">
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="47" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="D106" s="52">
+        <v>0.04</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F106" s="54">
-        <v>0</v>
-      </c>
-      <c r="G106" s="54">
-        <v>0</v>
-      </c>
-      <c r="H106" s="54">
-        <v>0</v>
-      </c>
-      <c r="I106" s="54">
-        <v>0</v>
-      </c>
-      <c r="J106" s="54">
-        <v>0</v>
-      </c>
-      <c r="K106" s="54">
-        <v>0.38300000000000001</v>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="61">
+        <v>0.04</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D107" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="60">
-        <v>100</v>
-      </c>
-      <c r="G107" s="60">
-        <v>100</v>
-      </c>
-      <c r="H107" s="60">
-        <v>100</v>
-      </c>
-      <c r="I107" s="60">
-        <v>100</v>
-      </c>
-      <c r="J107" s="60">
-        <v>100</v>
-      </c>
-      <c r="K107" s="60">
-        <v>100</v>
+      <c r="F107" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="G107" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="H107" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="I107" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="J107" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="K107" s="47">
+        <v>0.2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4771,176 +4752,188 @@
         <v>10</v>
       </c>
       <c r="B108" s="47" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="52">
-        <v>1.31</v>
+        <v>52</v>
+      </c>
+      <c r="D108" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
-      <c r="K108" s="55">
-        <v>1.31</v>
-      </c>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="47"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" s="47">
-        <v>0.9</v>
+        <v>52</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="60"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="60"/>
+      <c r="F109" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G109" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="H109" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="I109" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="J109" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="K109" s="47">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D110" s="47">
-        <v>0.9</v>
+        <v>52</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="E110" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="60"/>
-      <c r="J110" s="60"/>
-      <c r="K110" s="60"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="47" t="s">
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D111" s="54">
-        <v>1</v>
-      </c>
-      <c r="E111" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
-      <c r="J111" s="47"/>
-      <c r="K111" s="47"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47"/>
-      <c r="J113" s="47"/>
-      <c r="K113" s="47"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G113" s="48">
+        <v>2365</v>
+      </c>
+      <c r="H113" s="48">
+        <v>2730</v>
+      </c>
+      <c r="I113" s="48">
+        <v>3095</v>
+      </c>
+      <c r="J113" s="48">
+        <v>3460</v>
+      </c>
+      <c r="K113" s="48">
+        <v>3825</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="47"/>
-      <c r="C114" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G114" s="48">
-        <v>2365</v>
-      </c>
-      <c r="H114" s="48">
-        <v>2730</v>
-      </c>
-      <c r="I114" s="48">
-        <v>3095</v>
-      </c>
-      <c r="J114" s="48">
-        <v>3460</v>
-      </c>
-      <c r="K114" s="48">
-        <v>3825</v>
+        <v>11</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="54"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="54">
+        <v>0.99</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E115" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F115" s="54">
-        <v>0</v>
-      </c>
-      <c r="G115" s="54">
-        <v>0</v>
-      </c>
-      <c r="H115" s="54">
-        <v>0</v>
-      </c>
-      <c r="I115" s="54">
-        <v>0</v>
-      </c>
-      <c r="J115" s="54">
-        <v>0</v>
-      </c>
-      <c r="K115" s="54">
-        <v>0</v>
+      <c r="F115" s="60">
+        <v>100</v>
+      </c>
+      <c r="G115" s="60">
+        <v>100</v>
+      </c>
+      <c r="H115" s="60">
+        <v>100</v>
+      </c>
+      <c r="I115" s="60">
+        <v>100</v>
+      </c>
+      <c r="J115" s="60">
+        <v>100</v>
+      </c>
+      <c r="K115" s="60">
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -4948,117 +4941,131 @@
         <v>10</v>
       </c>
       <c r="B116" s="47" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="47" t="s">
-        <v>46</v>
+      <c r="D116" s="52">
+        <v>0.04</v>
       </c>
       <c r="E116" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="60">
-        <v>100</v>
-      </c>
-      <c r="G116" s="60">
-        <v>100</v>
-      </c>
-      <c r="H116" s="60">
-        <v>100</v>
-      </c>
-      <c r="I116" s="60">
-        <v>100</v>
-      </c>
-      <c r="J116" s="60">
-        <v>100</v>
-      </c>
-      <c r="K116" s="60">
-        <v>100</v>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="61">
+        <v>0.04</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="51">
-        <v>1.1000000000000001</v>
+        <v>52</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="E117" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
+      <c r="F117" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="G117" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="H117" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="I117" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="J117" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="K117" s="47">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D118" s="47">
-        <v>0.9</v>
+        <v>52</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="E118" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F118" s="60"/>
-      <c r="G118" s="60"/>
-      <c r="H118" s="60"/>
-      <c r="I118" s="60"/>
-      <c r="J118" s="60"/>
-      <c r="K118" s="60"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="47">
-        <v>0.9</v>
+        <v>52</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="E119" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F119" s="60"/>
-      <c r="G119" s="60"/>
-      <c r="H119" s="60"/>
-      <c r="I119" s="60"/>
-      <c r="J119" s="60"/>
-      <c r="K119" s="60"/>
+      <c r="F119" s="47">
+        <v>0</v>
+      </c>
+      <c r="G119" s="64">
+        <v>0</v>
+      </c>
+      <c r="H119" s="64">
+        <v>0</v>
+      </c>
+      <c r="I119" s="64">
+        <v>0</v>
+      </c>
+      <c r="J119" s="64">
+        <v>0</v>
+      </c>
+      <c r="K119" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="54">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="E120" s="47" t="s">
         <v>15</v>
@@ -5069,110 +5076,6 @@
       <c r="I120" s="47"/>
       <c r="J120" s="47"/>
       <c r="K120" s="47"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="47"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="47"/>
-      <c r="K123" s="47"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
-      <c r="K125" s="47"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
-      <c r="I126" s="47"/>
-      <c r="J126" s="47"/>
-      <c r="K126" s="47"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
-      <c r="I127" s="47"/>
-      <c r="J127" s="47"/>
-      <c r="K127" s="47"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="47"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="47"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47"/>
-      <c r="J129" s="47"/>
-      <c r="K129" s="47"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -5199,10 +5102,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5326,9 +5229,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,0.03,"N.A.")</f>
-        <v>0.03</v>
+      <c r="C7" s="39">
+        <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -5342,9 +5245,9 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="37">
-        <f t="shared" ref="C8:C9" si="1">IF(SUMPRODUCT(--(E8:T8&lt;&gt;""))=0,0.03,"N.A.")</f>
-        <v>0.03</v>
+      <c r="C8" s="39">
+        <f>IF(SUMPRODUCT(--(E8:T8&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -5358,9 +5261,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+      <c r="C9" s="39">
+        <f>IF(SUMPRODUCT(--(E9:T9&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -5403,13 +5306,19 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39">
-        <f>IF(SUMPRODUCT(--(E12:T12&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+      <c r="C12">
+        <f>IF(SUMPRODUCT(--(E12:T12&lt;&gt;""))=0,1-(1-0.005295)^(1/365),"N.A.")</f>
+        <v>1.4545286531886248E-5</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
@@ -5419,13 +5328,19 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="39">
-        <f>IF(SUMPRODUCT(--(E13:T13&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+      <c r="C13">
+        <f>IF(SUMPRODUCT(--(E13:T13&lt;&gt;""))=0,1-(1-0.01165)^(1/365),"N.A.")</f>
+        <v>3.2104670809940394E-5</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
@@ -5435,13 +5350,19 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39">
-        <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+      <c r="C14">
+        <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,1-(1-0.165)^(1/365),"N.A.")</f>
+        <v>4.9391511835539248E-4</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="16" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -5480,19 +5401,18 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
-        <f>IF(SUMPRODUCT(--(E17:T17&lt;&gt;""))=0,1-(1-0.005295)^(1/365),"N.A.")</f>
-        <v>1.4545286531886248E-5</v>
+      <c r="C17" s="42">
+        <v>6.2285885171518701E-3</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
@@ -5502,19 +5422,18 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <f>IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,1-(1-0.01165)^(1/365),"N.A.")</f>
-        <v>3.2104670809940394E-5</v>
+      <c r="C18" s="42">
+        <v>2.4811056979505402E-3</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
@@ -5524,276 +5443,183 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
-        <f>IF(SUMPRODUCT(--(E19:T19&lt;&gt;""))=0,1-(1-0.165)^(1/365),"N.A.")</f>
-        <v>4.9391511835539248E-4</v>
+      <c r="C19" s="42">
+        <v>5.6368602540784803E-2</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="21" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="30" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="30">
+      <c r="D21" s="37"/>
+      <c r="E21" s="38">
         <v>2000</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="38">
         <v>2365</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="38">
         <v>2730</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="38">
         <v>3095</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="38">
         <v>3460</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="38">
         <v>3825</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+      <c r="A22" s="37" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>General Population</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="42">
-        <v>6.2285885171518701E-3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="36" t="str">
+        <f>IF(SUMPRODUCT(--(E22:T22&lt;&gt;""))=0,C12/4,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="31">
+        <f>444028.512898878</f>
+        <v>444028.51289887802</v>
+      </c>
+      <c r="F22" s="31">
+        <f>510069.235389158</f>
+        <v>510069.23538915801</v>
+      </c>
+      <c r="G22" s="31">
+        <f>562897.024486538</f>
+        <v>562897.02448653802</v>
+      </c>
+      <c r="H22" s="31">
+        <f>511455.785444692</f>
+        <v>511455.78544469201</v>
+      </c>
+      <c r="I22" s="31">
+        <f>477512.664070678</f>
+        <v>477512.664070678</v>
+      </c>
+      <c r="J22" s="31">
+        <f>362432.525567375</f>
+        <v>362432.52556737501</v>
+      </c>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+      <c r="A23" s="37" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Pregnant Women</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="42">
-        <v>2.4811056979505402E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="36" t="str">
+        <f>IF(SUMPRODUCT(--(E23:T23&lt;&gt;""))=0,C13/4,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="31">
+        <f>39810.9079311173</f>
+        <v>39810.907931117297</v>
+      </c>
+      <c r="F23" s="31">
+        <f>39427.4243148512</f>
+        <v>39427.424314851203</v>
+      </c>
+      <c r="G23" s="31">
+        <f>37709.3922197304</f>
+        <v>37709.392219730398</v>
+      </c>
+      <c r="H23" s="31">
+        <f>33587.6639693231</f>
+        <v>33587.663969323097</v>
+      </c>
+      <c r="I23" s="31">
+        <f>30549.2761213177</f>
+        <v>30549.2761213177</v>
+      </c>
+      <c r="J23" s="31">
+        <f>26547.5690686254</f>
+        <v>26547.569068625398</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+      <c r="A24" s="37" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Children 0-5</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="42">
-        <v>5.6368602540784803E-2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38">
-        <v>2000</v>
-      </c>
-      <c r="F26" s="38">
-        <v>2365</v>
-      </c>
-      <c r="G26" s="38">
-        <v>2730</v>
-      </c>
-      <c r="H26" s="38">
-        <v>3095</v>
-      </c>
-      <c r="I26" s="38">
-        <v>3460</v>
-      </c>
-      <c r="J26" s="38">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>General Population</v>
-      </c>
-      <c r="B27" s="37" t="s">
+      <c r="B24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="36" t="str">
-        <f>IF(SUMPRODUCT(--(E27:T27&lt;&gt;""))=0,C17/4,"N.A.")</f>
+      <c r="C24" s="36" t="str">
+        <f>IF(SUMPRODUCT(--(E24:T24&lt;&gt;""))=0,C14/4,"N.A.")</f>
         <v>N.A.</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="31">
-        <f>444028.512898878</f>
-        <v>444028.51289887802</v>
-      </c>
-      <c r="F27" s="31">
-        <f>510069.235389158</f>
-        <v>510069.23538915801</v>
-      </c>
-      <c r="G27" s="31">
-        <f>562897.024486538</f>
-        <v>562897.02448653802</v>
-      </c>
-      <c r="H27" s="31">
-        <f>511455.785444692</f>
-        <v>511455.78544469201</v>
-      </c>
-      <c r="I27" s="31">
-        <f>477512.664070678</f>
-        <v>477512.664070678</v>
-      </c>
-      <c r="J27" s="31">
-        <f>362432.525567375</f>
-        <v>362432.52556737501</v>
-      </c>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>Pregnant Women</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="36" t="str">
-        <f>IF(SUMPRODUCT(--(E28:T28&lt;&gt;""))=0,C18/4,"N.A.")</f>
-        <v>N.A.</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="31">
-        <f>39810.9079311173</f>
-        <v>39810.907931117297</v>
-      </c>
-      <c r="F28" s="31">
-        <f>39427.4243148512</f>
-        <v>39427.424314851203</v>
-      </c>
-      <c r="G28" s="31">
-        <f>37709.3922197304</f>
-        <v>37709.392219730398</v>
-      </c>
-      <c r="H28" s="31">
-        <f>33587.6639693231</f>
-        <v>33587.663969323097</v>
-      </c>
-      <c r="I28" s="31">
-        <f>30549.2761213177</f>
-        <v>30549.2761213177</v>
-      </c>
-      <c r="J28" s="31">
-        <f>26547.5690686254</f>
-        <v>26547.569068625398</v>
-      </c>
-      <c r="L28" s="36"/>
-      <c r="N28" s="37"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>Children 0-5</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="36" t="str">
-        <f>IF(SUMPRODUCT(--(E29:T29&lt;&gt;""))=0,C19/4,"N.A.")</f>
-        <v>N.A.</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="D24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="31">
         <f>600847.439170005</f>
         <v>600847.43917000503</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F24" s="31">
         <f>534852.296295991</f>
         <v>534852.29629599105</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G24" s="31">
         <f>459454.103293731</f>
         <v>459454.10329373099</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H24" s="31">
         <f>438277.111985984</f>
         <v>438277.11198598403</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I24" s="31">
         <f>414415.873408004</f>
         <v>414415.873408004</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J24" s="31">
         <f>369367.712064</f>
         <v>369367.71206400002</v>
       </c>
-      <c r="L29" s="36"/>
-      <c r="N29" s="37"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L31" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="36"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:B24 B17:B19 B12:B14 B7:B9 B2:B4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17:B19 B12:B14 B7:B9 B2:B4">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B27:B29">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:B24">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5806,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6621,7 +6447,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>7</v>
@@ -6838,7 +6664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E32" sqref="E32:J34"/>
     </sheetView>
   </sheetViews>
